--- a/Docs/AHPL/CSR.xlsx
+++ b/Docs/AHPL/CSR.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIS ARCHIVOS\DESCARGAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\RISC-V-Processor-AHPL\Docs\AHPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB107303-4B2B-45D1-8864-CDE56F651655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACA8E62-A6BC-4983-9E56-2645D8E7ADF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{86CAE48D-CDE6-43A5-BCA4-CFB2646DD800}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{86CAE48D-CDE6-43A5-BCA4-CFB2646DD800}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="99">
   <si>
     <t>0x</t>
   </si>
@@ -172,20 +173,6 @@
     <t>300</t>
   </si>
   <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>W</t>
-    </r>
-  </si>
-  <si>
     <t>Mstatus</t>
   </si>
   <si>
@@ -193,9 +180,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Solo hay Privilegios M, MIE esta en 1 al inicio</t>
   </si>
   <si>
     <r>
@@ -297,9 +281,6 @@
   </si>
   <si>
     <t>Machine Interrupt Enable Register</t>
-  </si>
-  <si>
-    <t>Habilita ciertas interrupciones</t>
   </si>
   <si>
     <t>MIP</t>
@@ -424,12 +405,104 @@
   <si>
     <t>30A</t>
   </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>CSR</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Registers</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Rg</t>
+  </si>
+  <si>
+    <t>Ct</t>
+  </si>
+  <si>
+    <t>Ex</t>
+  </si>
+  <si>
+    <t>Ir*</t>
+  </si>
+  <si>
+    <t>Habilita ciertas interrupciones (En rojo: bits usados)</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>W</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solo hay Privilegios </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, MIE esta en 1 al inicio</t>
+    </r>
+  </si>
+  <si>
+    <t>R MW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +532,21 @@
       <color theme="4"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -499,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -749,11 +837,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -843,6 +1039,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,13 +1131,66 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF763CB6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0099"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF763CB6"/>
+      <color rgb="FFCCCCFF"/>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FFCC0099"/>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1195,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204E82B8-9C2E-475F-89E3-D1D93FAEE6E1}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,24 +1516,24 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="37" t="s">
-        <v>48</v>
+      <c r="H2" s="56" t="s">
+        <v>47</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -1236,13 +1542,13 @@
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1438,19 +1744,19 @@
         <v>44</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="G9" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="1"/>
@@ -1470,22 +1776,22 @@
         <v>0</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="1"/>
@@ -1505,22 +1811,22 @@
         <v>0</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="1"/>
@@ -1540,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="G12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="25" t="s">
-        <v>67</v>
-      </c>
       <c r="H12" s="26" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="1"/>
@@ -1575,22 +1881,22 @@
         <v>0</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="1"/>
@@ -1610,22 +1916,22 @@
         <v>0</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="39" t="s">
-        <v>78</v>
+      <c r="H14" s="58" t="s">
+        <v>75</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="1"/>
@@ -1645,21 +1951,21 @@
         <v>0</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="40"/>
+      <c r="H15" s="59"/>
       <c r="I15" s="5">
         <f t="shared" si="1"/>
         <v>776</v>
@@ -1678,21 +1984,21 @@
         <v>0</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="40"/>
+      <c r="H16" s="59"/>
       <c r="I16" s="5">
         <f t="shared" si="1"/>
         <v>777</v>
@@ -1711,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="41"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="5">
         <f t="shared" si="1"/>
         <v>778</v>
@@ -2008,4 +2314,1338 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA9C5A5-BA11-4A2E-A79A-6B42F00E1AC0}">
+  <dimension ref="B2:X22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13:V13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="23" width="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="37">
+        <v>18</v>
+      </c>
+      <c r="F2" s="37">
+        <v>17</v>
+      </c>
+      <c r="G2" s="37">
+        <v>16</v>
+      </c>
+      <c r="H2" s="37">
+        <v>15</v>
+      </c>
+      <c r="I2" s="37">
+        <v>14</v>
+      </c>
+      <c r="J2" s="37">
+        <v>13</v>
+      </c>
+      <c r="K2" s="37">
+        <v>12</v>
+      </c>
+      <c r="L2" s="37">
+        <v>11</v>
+      </c>
+      <c r="M2" s="37">
+        <v>10</v>
+      </c>
+      <c r="N2" s="37">
+        <v>9</v>
+      </c>
+      <c r="O2" s="37">
+        <v>8</v>
+      </c>
+      <c r="P2" s="37">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="37">
+        <v>6</v>
+      </c>
+      <c r="R2" s="37">
+        <v>5</v>
+      </c>
+      <c r="S2" s="37">
+        <v>4</v>
+      </c>
+      <c r="T2" s="37">
+        <v>3</v>
+      </c>
+      <c r="U2" s="37">
+        <v>2</v>
+      </c>
+      <c r="V2" s="37">
+        <v>1</v>
+      </c>
+      <c r="W2" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="44">
+        <v>101</v>
+      </c>
+      <c r="F3" s="45">
+        <v>100</v>
+      </c>
+      <c r="G3" s="45">
+        <v>99</v>
+      </c>
+      <c r="H3" s="45">
+        <v>98</v>
+      </c>
+      <c r="I3" s="45">
+        <v>95</v>
+      </c>
+      <c r="J3" s="45">
+        <v>94</v>
+      </c>
+      <c r="K3" s="45">
+        <v>93</v>
+      </c>
+      <c r="L3" s="45">
+        <v>92</v>
+      </c>
+      <c r="M3" s="45">
+        <v>91</v>
+      </c>
+      <c r="N3" s="45">
+        <v>90</v>
+      </c>
+      <c r="O3" s="45">
+        <v>88</v>
+      </c>
+      <c r="P3" s="45">
+        <v>84</v>
+      </c>
+      <c r="Q3" s="45">
+        <v>73</v>
+      </c>
+      <c r="R3" s="45">
+        <v>72</v>
+      </c>
+      <c r="S3" s="45">
+        <v>71</v>
+      </c>
+      <c r="T3" s="45">
+        <v>70</v>
+      </c>
+      <c r="U3" s="45">
+        <v>69</v>
+      </c>
+      <c r="V3" s="45">
+        <v>68</v>
+      </c>
+      <c r="W3" s="46">
+        <v>67</v>
+      </c>
+      <c r="X3" s="53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="38">
+        <v>3857</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="U4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="V4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="W4" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="39">
+        <v>3858</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="S5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="V5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="W5" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="39">
+        <v>3859</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="T6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="V6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="39">
+        <v>3860</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="S7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="T7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="V7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="W7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="39">
+        <v>769</v>
+      </c>
+      <c r="C8" s="17">
+        <v>301</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="T8" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="W8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="X8" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="39">
+        <v>768</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="T9" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="U9" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="V9" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="W9" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="40">
+        <v>833</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="S10" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="U10" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="V10" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="W10" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="40">
+        <v>835</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="R11" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="U11" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="V11" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="W11" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="X11" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="41">
+        <v>772</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="R12" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="S12" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="T12" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="U12" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="V12" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="W12" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="41">
+        <v>836</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="T13" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="U13" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="V13" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="W13" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="X13" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="41">
+        <v>775</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="R14" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="S14" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="T14" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="U14" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="V14" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="W14" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="41">
+        <v>776</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="R15" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="S15" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="T15" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="U15" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="V15" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="W15" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="41">
+        <v>777</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="R16" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="S16" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="T16" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="U16" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="V16" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="W16" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="X16" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="42">
+        <v>778</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="R17" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="S17" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="U17" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="V17" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="W17" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="H18" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q18" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="S18" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="T18" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="U18" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="V18" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="W18" s="54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="H19" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="T19" s="54"/>
+      <c r="W19" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="X19" s="55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="H20" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="55"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="H21" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="O21" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="P21" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q21" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="R21" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="S21" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="T21" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="U21" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="V21" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="W21" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="X21" s="55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="H22" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="P22" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q22" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="R22" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="S22" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="T22" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="U22" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="V22" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="W22" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="X22" s="54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C7:D28">
+    <sortCondition descending="1" ref="C7"/>
+  </sortState>
+  <conditionalFormatting sqref="P21:W21 I22:X22 W18:W19 T19:T20 U20:W20 H18:H22 O18:O21 E4:W17 P18:V18 I18:N18">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"W"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:W17 P18 I18:N18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"RW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/AHPL/CSR.xlsx
+++ b/Docs/AHPL/CSR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\RISC-V-Processor-AHPL\Docs\AHPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACA8E62-A6BC-4983-9E56-2645D8E7ADF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D877911B-932B-438D-BD97-7B6589C5B7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{86CAE48D-CDE6-43A5-BCA4-CFB2646DD800}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="100">
   <si>
     <t>0x</t>
   </si>
@@ -497,12 +497,15 @@
   <si>
     <t>R MW</t>
   </si>
+  <si>
+    <t>Csr Test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,8 +551,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,6 +596,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -949,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1096,6 +1112,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,9 +1151,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1516,23 +1539,23 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="67" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="57" t="s">
         <v>47</v>
       </c>
       <c r="I2" s="5"/>
@@ -1542,13 +1565,13 @@
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="57"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1930,7 +1953,7 @@
       <c r="G14" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="59" t="s">
         <v>75</v>
       </c>
       <c r="I14" s="5">
@@ -1965,7 +1988,7 @@
       <c r="G15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="59"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="5">
         <f t="shared" si="1"/>
         <v>776</v>
@@ -1998,7 +2021,7 @@
       <c r="G16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="59"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="5">
         <f t="shared" si="1"/>
         <v>777</v>
@@ -2031,7 +2054,7 @@
       <c r="G17" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="60"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="5">
         <f t="shared" si="1"/>
         <v>778</v>
@@ -2318,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA9C5A5-BA11-4A2E-A79A-6B42F00E1AC0}">
-  <dimension ref="B2:X22"/>
+  <dimension ref="B2:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13:V13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2335,7 +2358,7 @@
     <col min="25" max="26" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E2" s="37">
         <v>18</v>
       </c>
@@ -2394,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
         <v>79</v>
       </c>
@@ -2465,7 +2488,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B4" s="38">
         <v>3857</v>
       </c>
@@ -2536,7 +2559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B5" s="39">
         <v>3858</v>
       </c>
@@ -2607,7 +2630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B6" s="39">
         <v>3859</v>
       </c>
@@ -2678,7 +2701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B7" s="39">
         <v>3860</v>
       </c>
@@ -2749,7 +2772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B8" s="39">
         <v>769</v>
       </c>
@@ -2819,8 +2842,11 @@
       <c r="X8" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="AA8" s="69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B9" s="39">
         <v>768</v>
       </c>
@@ -2890,8 +2916,9 @@
       <c r="X9" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="AA9" s="69"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B10" s="40">
         <v>833</v>
       </c>
@@ -2961,8 +2988,9 @@
       <c r="X10" s="21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="AA10" s="69"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B11" s="40">
         <v>835</v>
       </c>
@@ -3032,8 +3060,9 @@
       <c r="X11" s="21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="AA11" s="69"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B12" s="41">
         <v>772</v>
       </c>
@@ -3103,8 +3132,9 @@
       <c r="X12" s="25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="AA12" s="69"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B13" s="41">
         <v>836</v>
       </c>
@@ -3144,28 +3174,28 @@
       <c r="N13" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="O13" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="P13" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q13" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="R13" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="S13" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="T13" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="U13" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="V13" s="68" t="s">
+      <c r="O13" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="T13" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="U13" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="V13" s="56" t="s">
         <v>83</v>
       </c>
       <c r="W13" s="49" t="s">
@@ -3175,7 +3205,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B14" s="41">
         <v>775</v>
       </c>
@@ -3245,8 +3275,11 @@
       <c r="X14" s="25" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="AA14" s="70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B15" s="41">
         <v>776</v>
       </c>
@@ -3316,8 +3349,9 @@
       <c r="X15" s="25" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="AB15" s="71"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B16" s="41">
         <v>777</v>
       </c>
@@ -3629,6 +3663,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C7:D28">
     <sortCondition descending="1" ref="C7"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="AA8:AA12"/>
+  </mergeCells>
   <conditionalFormatting sqref="P21:W21 I22:X22 W18:W19 T19:T20 U20:W20 H18:H22 O18:O21 E4:W17 P18:V18 I18:N18">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"N"</formula>
